--- a/modelos/OBALEI4421033/OBALEI4421033_Sell in_metricas.xlsx
+++ b/modelos/OBALEI4421033/OBALEI4421033_Sell in_metricas.xlsx
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B2" t="n">
-        <v>525.1491416988285</v>
+        <v>1082.301935318359</v>
       </c>
       <c r="C2" t="n">
-        <v>-343.8587824700273</v>
+        <v>228.8230130598623</v>
       </c>
       <c r="D2" t="n">
-        <v>1419.318839761352</v>
+        <v>1974.041114077751</v>
       </c>
       <c r="E2" t="n">
-        <v>384</v>
+        <v>636</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>1218.706593228006</v>
+        <v>620.6008495904765</v>
       </c>
       <c r="C3" t="n">
-        <v>310.7626677659154</v>
+        <v>-272.7523638118952</v>
       </c>
       <c r="D3" t="n">
-        <v>2102.884088564236</v>
+        <v>1501.400434215283</v>
       </c>
       <c r="E3" t="n">
-        <v>1092</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44740</v>
@@ -513,199 +513,199 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B4" t="n">
-        <v>1442.46791541823</v>
+        <v>1297.600514941045</v>
       </c>
       <c r="C4" t="n">
-        <v>513.400152316901</v>
+        <v>438.1226169756171</v>
       </c>
       <c r="D4" t="n">
-        <v>2350.719138281627</v>
+        <v>2177.618788395353</v>
       </c>
       <c r="E4" t="n">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B5" t="n">
-        <v>1458.217360562166</v>
+        <v>1478.348762607563</v>
       </c>
       <c r="C5" t="n">
-        <v>463.9777190687082</v>
+        <v>581.475983897033</v>
       </c>
       <c r="D5" t="n">
-        <v>2376.049397185018</v>
+        <v>2291.970449427326</v>
       </c>
       <c r="E5" t="n">
-        <v>924</v>
+        <v>1020</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="B6" t="n">
-        <v>1471.240690919202</v>
+        <v>1499.101827791215</v>
       </c>
       <c r="C6" t="n">
-        <v>513.6268650187208</v>
+        <v>619.2763120062089</v>
       </c>
       <c r="D6" t="n">
-        <v>2391.857720707175</v>
+        <v>2388.501417811564</v>
       </c>
       <c r="E6" t="n">
-        <v>1044</v>
+        <v>924</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
       <c r="B7" t="n">
-        <v>1652.750820462949</v>
+        <v>1521.102327759266</v>
       </c>
       <c r="C7" t="n">
-        <v>762.4597853222174</v>
+        <v>693.2895617168682</v>
       </c>
       <c r="D7" t="n">
-        <v>2527.824243665944</v>
+        <v>2330.097883279709</v>
       </c>
       <c r="E7" t="n">
-        <v>1380</v>
+        <v>1044</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B8" t="n">
-        <v>1807.365194955952</v>
+        <v>1672.758981560105</v>
       </c>
       <c r="C8" t="n">
-        <v>921.3359541150405</v>
+        <v>885.9999640088537</v>
       </c>
       <c r="D8" t="n">
-        <v>2669.933820503328</v>
+        <v>2509.634961462919</v>
       </c>
       <c r="E8" t="n">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B9" t="n">
-        <v>1553.483589678409</v>
+        <v>1791.009791065121</v>
       </c>
       <c r="C9" t="n">
-        <v>625.4465211426503</v>
+        <v>905.0893513017313</v>
       </c>
       <c r="D9" t="n">
-        <v>2401.616430436537</v>
+        <v>2604.580596484643</v>
       </c>
       <c r="E9" t="n">
-        <v>1020</v>
+        <v>1260</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
       <c r="B10" t="n">
-        <v>1134.340059565927</v>
+        <v>1575.980153843864</v>
       </c>
       <c r="C10" t="n">
-        <v>308.3186739371081</v>
+        <v>710.6366814923334</v>
       </c>
       <c r="D10" t="n">
-        <v>1976.491413143018</v>
+        <v>2403.925530262751</v>
       </c>
       <c r="E10" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B11" t="n">
-        <v>1084.44793101051</v>
+        <v>1208.507893563156</v>
       </c>
       <c r="C11" t="n">
-        <v>253.8134333852894</v>
+        <v>364.2829756734225</v>
       </c>
       <c r="D11" t="n">
-        <v>1948.620099525105</v>
+        <v>2029.487122047</v>
       </c>
       <c r="E11" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B12" t="n">
-        <v>593.9344112663641</v>
+        <v>1091.260343670368</v>
       </c>
       <c r="C12" t="n">
-        <v>-205.768879535018</v>
+        <v>223.8682648811633</v>
       </c>
       <c r="D12" t="n">
-        <v>1449.702320410974</v>
+        <v>1915.530107613419</v>
       </c>
       <c r="E12" t="n">
-        <v>684</v>
+        <v>600</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B13" t="n">
-        <v>1328.009880279871</v>
+        <v>593.067142930147</v>
       </c>
       <c r="C13" t="n">
-        <v>511.8228233199723</v>
+        <v>-318.1282067336534</v>
       </c>
       <c r="D13" t="n">
-        <v>2136.419465674471</v>
+        <v>1400.437677449956</v>
       </c>
       <c r="E13" t="n">
-        <v>1296</v>
+        <v>684</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44803</v>
@@ -713,199 +713,199 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B14" t="n">
-        <v>1809.222533581986</v>
+        <v>1325.719040297162</v>
       </c>
       <c r="C14" t="n">
-        <v>971.8935428220543</v>
+        <v>517.3505730616999</v>
       </c>
       <c r="D14" t="n">
-        <v>2688.329868918124</v>
+        <v>2172.777968039143</v>
       </c>
       <c r="E14" t="n">
-        <v>2100</v>
+        <v>1296</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B15" t="n">
-        <v>2332.702369709608</v>
+        <v>1801.129996014725</v>
       </c>
       <c r="C15" t="n">
-        <v>1457.100028121154</v>
+        <v>1022.308321284581</v>
       </c>
       <c r="D15" t="n">
-        <v>3242.622162967136</v>
+        <v>2647.948067226239</v>
       </c>
       <c r="E15" t="n">
-        <v>1092</v>
+        <v>2100</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B16" t="n">
-        <v>2102.925438871972</v>
+        <v>2317.831181596907</v>
       </c>
       <c r="C16" t="n">
-        <v>1247.024680549173</v>
+        <v>1465.702873421689</v>
       </c>
       <c r="D16" t="n">
-        <v>2924.223031550439</v>
+        <v>3153.610671584425</v>
       </c>
       <c r="E16" t="n">
-        <v>1560</v>
+        <v>1092</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B17" t="n">
-        <v>1770.466883371374</v>
+        <v>2115.43026066011</v>
       </c>
       <c r="C17" t="n">
-        <v>902.9808932294665</v>
+        <v>1329.515995764082</v>
       </c>
       <c r="D17" t="n">
-        <v>2652.364826812048</v>
+        <v>2963.266379677618</v>
       </c>
       <c r="E17" t="n">
-        <v>888</v>
+        <v>1560</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B18" t="n">
-        <v>1399.428602256387</v>
+        <v>1723.151933177032</v>
       </c>
       <c r="C18" t="n">
-        <v>519.2815354490124</v>
+        <v>932.2067825548024</v>
       </c>
       <c r="D18" t="n">
-        <v>2224.75993966832</v>
+        <v>2510.937570878484</v>
       </c>
       <c r="E18" t="n">
-        <v>2004</v>
+        <v>888</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B19" t="n">
-        <v>1443.561278360257</v>
+        <v>1427.937105580942</v>
       </c>
       <c r="C19" t="n">
-        <v>569.565361924648</v>
+        <v>664.6580027015914</v>
       </c>
       <c r="D19" t="n">
-        <v>2320.911327988946</v>
+        <v>2272.97586108728</v>
       </c>
       <c r="E19" t="n">
-        <v>1272</v>
+        <v>2004</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B20" t="n">
-        <v>1199.289304771159</v>
+        <v>1376.437789391228</v>
       </c>
       <c r="C20" t="n">
-        <v>325.7755173916047</v>
+        <v>575.1665645702834</v>
       </c>
       <c r="D20" t="n">
-        <v>2014.950336297313</v>
+        <v>2160.329303077155</v>
       </c>
       <c r="E20" t="n">
-        <v>1752</v>
+        <v>1272</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B21" t="n">
-        <v>661.9685798308566</v>
+        <v>1108.96971180684</v>
       </c>
       <c r="C21" t="n">
-        <v>-179.7456577044775</v>
+        <v>286.652997045195</v>
       </c>
       <c r="D21" t="n">
-        <v>1482.500215517578</v>
+        <v>1904.369727721011</v>
       </c>
       <c r="E21" t="n">
-        <v>840</v>
+        <v>1752</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B22" t="n">
-        <v>546.9618398007185</v>
+        <v>514.1335690716201</v>
       </c>
       <c r="C22" t="n">
-        <v>-321.4880711068766</v>
+        <v>-318.2238664899548</v>
       </c>
       <c r="D22" t="n">
-        <v>1303.946792379515</v>
+        <v>1317.825075887355</v>
       </c>
       <c r="E22" t="n">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B23" t="n">
-        <v>1028.596139503633</v>
+        <v>338.2629868093793</v>
       </c>
       <c r="C23" t="n">
-        <v>140.0829147757068</v>
+        <v>-467.5791844309907</v>
       </c>
       <c r="D23" t="n">
-        <v>1895.846797027867</v>
+        <v>1164.477812213215</v>
       </c>
       <c r="E23" t="n">
-        <v>1224</v>
+        <v>360</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44866</v>
@@ -913,82 +913,82 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B24" t="n">
-        <v>1123.034249289303</v>
+        <v>837.2440406788367</v>
       </c>
       <c r="C24" t="n">
-        <v>311.810556320602</v>
+        <v>73.76363789249372</v>
       </c>
       <c r="D24" t="n">
-        <v>1982.950155961636</v>
+        <v>1630.678643959645</v>
       </c>
       <c r="E24" t="n">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B25" t="n">
-        <v>1394.483544487995</v>
+        <v>1101.055505692669</v>
       </c>
       <c r="C25" t="n">
-        <v>576.1480184382617</v>
+        <v>297.3079126569249</v>
       </c>
       <c r="D25" t="n">
-        <v>2292.507152352747</v>
+        <v>1943.554446529235</v>
       </c>
       <c r="E25" t="n">
-        <v>1656</v>
+        <v>1236</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B26" t="n">
-        <v>1394.542448889501</v>
+        <v>1435.303230691813</v>
       </c>
       <c r="C26" t="n">
-        <v>576.6416406630432</v>
+        <v>700.2893267074642</v>
       </c>
       <c r="D26" t="n">
-        <v>2213.411409735204</v>
+        <v>2238.604787091759</v>
       </c>
       <c r="E26" t="n">
-        <v>1020</v>
+        <v>1656</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B27" t="n">
-        <v>1071.69983729453</v>
+        <v>1443.352965163058</v>
       </c>
       <c r="C27" t="n">
-        <v>251.9889484706987</v>
+        <v>623.6187673493417</v>
       </c>
       <c r="D27" t="n">
-        <v>1873.164064400492</v>
+        <v>2222.671378704178</v>
       </c>
       <c r="E27" t="n">
-        <v>2784</v>
+        <v>1020</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28">
@@ -996,13 +996,13 @@
         <v>44908</v>
       </c>
       <c r="B28" t="n">
-        <v>1104.223479404088</v>
+        <v>934.082265705483</v>
       </c>
       <c r="C28" t="n">
-        <v>246.4239342730087</v>
+        <v>155.0371987422589</v>
       </c>
       <c r="D28" t="n">
-        <v>1876.94886426911</v>
+        <v>1730.550887913322</v>
       </c>
       <c r="E28" t="n">
         <v>1668</v>
@@ -1016,13 +1016,13 @@
         <v>44915</v>
       </c>
       <c r="B29" t="n">
-        <v>1384.594669521838</v>
+        <v>1252.723756635352</v>
       </c>
       <c r="C29" t="n">
-        <v>575.1319240717179</v>
+        <v>446.6312536478854</v>
       </c>
       <c r="D29" t="n">
-        <v>2256.607008414934</v>
+        <v>2068.121117725044</v>
       </c>
       <c r="E29" t="n">
         <v>1200</v>
@@ -1036,13 +1036,13 @@
         <v>44922</v>
       </c>
       <c r="B30" t="n">
-        <v>1846.209376504693</v>
+        <v>1839.225952258553</v>
       </c>
       <c r="C30" t="n">
-        <v>1014.647092575233</v>
+        <v>1040.651494850825</v>
       </c>
       <c r="D30" t="n">
-        <v>2751.43185551967</v>
+        <v>2647.7078592239</v>
       </c>
       <c r="E30" t="n">
         <v>1092</v>
@@ -1056,13 +1056,13 @@
         <v>44929</v>
       </c>
       <c r="B31" t="n">
-        <v>2239.667624676797</v>
+        <v>2264.445877455323</v>
       </c>
       <c r="C31" t="n">
-        <v>1435.920778617935</v>
+        <v>1504.016562573899</v>
       </c>
       <c r="D31" t="n">
-        <v>3128.846203762833</v>
+        <v>3047.199958398524</v>
       </c>
       <c r="E31" t="n">
         <v>1056</v>
@@ -1076,13 +1076,13 @@
         <v>44936</v>
       </c>
       <c r="B32" t="n">
-        <v>2198.952910618453</v>
+        <v>2171.181124698545</v>
       </c>
       <c r="C32" t="n">
-        <v>1308.759006694188</v>
+        <v>1360.163285580295</v>
       </c>
       <c r="D32" t="n">
-        <v>3002.798066675184</v>
+        <v>2933.524839909968</v>
       </c>
       <c r="E32" t="n">
         <v>1344</v>
@@ -1096,13 +1096,13 @@
         <v>44943</v>
       </c>
       <c r="B33" t="n">
-        <v>1820.000351450385</v>
+        <v>1756.800775168145</v>
       </c>
       <c r="C33" t="n">
-        <v>1020.260441028364</v>
+        <v>965.301188523466</v>
       </c>
       <c r="D33" t="n">
-        <v>2715.29133688533</v>
+        <v>2537.059003963243</v>
       </c>
       <c r="E33" t="n">
         <v>1440</v>
@@ -1116,13 +1116,13 @@
         <v>44950</v>
       </c>
       <c r="B34" t="n">
-        <v>1297.210486552018</v>
+        <v>1236.595394725658</v>
       </c>
       <c r="C34" t="n">
-        <v>445.8553723436243</v>
+        <v>424.9248792379485</v>
       </c>
       <c r="D34" t="n">
-        <v>2133.25526265326</v>
+        <v>2072.467233065499</v>
       </c>
       <c r="E34" t="n">
         <v>1236</v>
@@ -1136,13 +1136,13 @@
         <v>44957</v>
       </c>
       <c r="B35" t="n">
-        <v>852.1272923935062</v>
+        <v>872.0698866334794</v>
       </c>
       <c r="C35" t="n">
-        <v>26.11054960972075</v>
+        <v>36.32317583955822</v>
       </c>
       <c r="D35" t="n">
-        <v>1755.477986183733</v>
+        <v>1652.871179164626</v>
       </c>
       <c r="E35" t="n">
         <v>612</v>
@@ -1156,13 +1156,13 @@
         <v>44960</v>
       </c>
       <c r="B36" t="n">
-        <v>179.0043403383277</v>
+        <v>205.3959373807438</v>
       </c>
       <c r="C36" t="n">
-        <v>-709.4403335887332</v>
+        <v>-547.0230722548316</v>
       </c>
       <c r="D36" t="n">
-        <v>999.9995197915057</v>
+        <v>976.3449744195012</v>
       </c>
       <c r="E36" t="n">
         <v>444</v>
@@ -1176,13 +1176,13 @@
         <v>44964</v>
       </c>
       <c r="B37" t="n">
-        <v>590.0525773930736</v>
+        <v>590.7574723989151</v>
       </c>
       <c r="C37" t="n">
-        <v>-271.912569819891</v>
+        <v>-154.2324890976969</v>
       </c>
       <c r="D37" t="n">
-        <v>1443.672516841717</v>
+        <v>1412.819860282053</v>
       </c>
       <c r="E37" t="n">
         <v>1008</v>
@@ -1196,13 +1196,13 @@
         <v>44971</v>
       </c>
       <c r="B38" t="n">
-        <v>643.8198582296073</v>
+        <v>631.4383438869463</v>
       </c>
       <c r="C38" t="n">
-        <v>-238.7996738535084</v>
+        <v>-194.4082279324286</v>
       </c>
       <c r="D38" t="n">
-        <v>1541.477402732806</v>
+        <v>1394.777988085613</v>
       </c>
       <c r="E38" t="n">
         <v>924</v>
@@ -1216,13 +1216,13 @@
         <v>44980</v>
       </c>
       <c r="B39" t="n">
-        <v>1012.848786760812</v>
+        <v>976.6657008597937</v>
       </c>
       <c r="C39" t="n">
-        <v>175.6741345962507</v>
+        <v>189.398348947381</v>
       </c>
       <c r="D39" t="n">
-        <v>1873.569224247427</v>
+        <v>1799.169098219429</v>
       </c>
       <c r="E39" t="n">
         <v>1296</v>
@@ -1236,13 +1236,13 @@
         <v>44985</v>
       </c>
       <c r="B40" t="n">
-        <v>1444.908395900379</v>
+        <v>1201.897612924668</v>
       </c>
       <c r="C40" t="n">
-        <v>532.2031834963639</v>
+        <v>434.1120650381937</v>
       </c>
       <c r="D40" t="n">
-        <v>2317.86978748217</v>
+        <v>1915.014904645441</v>
       </c>
       <c r="E40" t="n">
         <v>672</v>
@@ -1256,13 +1256,13 @@
         <v>44988</v>
       </c>
       <c r="B41" t="n">
-        <v>1012.211040645042</v>
+        <v>794.569749862301</v>
       </c>
       <c r="C41" t="n">
-        <v>170.9241172720165</v>
+        <v>22.55159373943379</v>
       </c>
       <c r="D41" t="n">
-        <v>1826.105757666428</v>
+        <v>1563.139392663899</v>
       </c>
       <c r="E41" t="n">
         <v>300</v>
@@ -1276,13 +1276,13 @@
         <v>44992</v>
       </c>
       <c r="B42" t="n">
-        <v>1752.409424083147</v>
+        <v>1488.072790087686</v>
       </c>
       <c r="C42" t="n">
-        <v>884.471771195241</v>
+        <v>712.6825089688443</v>
       </c>
       <c r="D42" t="n">
-        <v>2546.399829274914</v>
+        <v>2253.752844110094</v>
       </c>
       <c r="E42" t="n">
         <v>1380</v>
@@ -1296,13 +1296,13 @@
         <v>44999</v>
       </c>
       <c r="B43" t="n">
-        <v>1689.888878960847</v>
+        <v>1478.590330067434</v>
       </c>
       <c r="C43" t="n">
-        <v>939.0303152977092</v>
+        <v>657.3575294809048</v>
       </c>
       <c r="D43" t="n">
-        <v>2499.945207480233</v>
+        <v>2235.974853757225</v>
       </c>
       <c r="E43" t="n">
         <v>1392</v>
@@ -1316,13 +1316,13 @@
         <v>45006</v>
       </c>
       <c r="B44" t="n">
-        <v>1205.465937599156</v>
+        <v>1123.695423206873</v>
       </c>
       <c r="C44" t="n">
-        <v>379.0389985966513</v>
+        <v>340.2757021055706</v>
       </c>
       <c r="D44" t="n">
-        <v>2072.588106563769</v>
+        <v>1939.748192762969</v>
       </c>
       <c r="E44" t="n">
         <v>2028</v>
@@ -1336,13 +1336,13 @@
         <v>45013</v>
       </c>
       <c r="B45" t="n">
-        <v>874.6851738008356</v>
+        <v>887.0904991164673</v>
       </c>
       <c r="C45" t="n">
-        <v>54.26317494532154</v>
+        <v>163.1488528259514</v>
       </c>
       <c r="D45" t="n">
-        <v>1722.789884969321</v>
+        <v>1747.067565394388</v>
       </c>
       <c r="E45" t="n">
         <v>1056</v>
@@ -1356,13 +1356,13 @@
         <v>45020</v>
       </c>
       <c r="B46" t="n">
-        <v>938.6384206817834</v>
+        <v>1030.463273951985</v>
       </c>
       <c r="C46" t="n">
-        <v>78.0854843390468</v>
+        <v>276.6922825756904</v>
       </c>
       <c r="D46" t="n">
-        <v>1740.197646515559</v>
+        <v>1858.9535969551</v>
       </c>
       <c r="E46" t="n">
         <v>1428</v>
@@ -1376,13 +1376,13 @@
         <v>45027</v>
       </c>
       <c r="B47" t="n">
-        <v>1680.687997700035</v>
+        <v>1894.113201204928</v>
       </c>
       <c r="C47" t="n">
-        <v>828.2027929386227</v>
+        <v>1068.776387960565</v>
       </c>
       <c r="D47" t="n">
-        <v>2505.908492246891</v>
+        <v>2689.316449457275</v>
       </c>
       <c r="E47" t="n">
         <v>1308</v>
@@ -1396,13 +1396,13 @@
         <v>45034</v>
       </c>
       <c r="B48" t="n">
-        <v>2610.313372027344</v>
+        <v>2707.597699269729</v>
       </c>
       <c r="C48" t="n">
-        <v>1752.457765472776</v>
+        <v>1940.679144685311</v>
       </c>
       <c r="D48" t="n">
-        <v>3414.704675136439</v>
+        <v>3464.737717030538</v>
       </c>
       <c r="E48" t="n">
         <v>3636</v>
@@ -1416,13 +1416,13 @@
         <v>45040</v>
       </c>
       <c r="B49" t="n">
-        <v>2643.362018567921</v>
+        <v>2751.588047816781</v>
       </c>
       <c r="C49" t="n">
-        <v>1871.823762056888</v>
+        <v>2036.341221624649</v>
       </c>
       <c r="D49" t="n">
-        <v>3456.213917353858</v>
+        <v>3565.213257001205</v>
       </c>
       <c r="E49" t="n">
         <v>2016</v>
@@ -1436,13 +1436,13 @@
         <v>45048</v>
       </c>
       <c r="B50" t="n">
-        <v>2466.32845248987</v>
+        <v>2394.59748430756</v>
       </c>
       <c r="C50" t="n">
-        <v>1734.417210790253</v>
+        <v>1623.006115628216</v>
       </c>
       <c r="D50" t="n">
-        <v>3322.817571490119</v>
+        <v>3158.51237007975</v>
       </c>
       <c r="E50" t="n">
         <v>1656</v>
@@ -1456,13 +1456,13 @@
         <v>45055</v>
       </c>
       <c r="B51" t="n">
-        <v>1361.989223087999</v>
+        <v>1274.346375667935</v>
       </c>
       <c r="C51" t="n">
-        <v>526.306230435192</v>
+        <v>494.5767709128846</v>
       </c>
       <c r="D51" t="n">
-        <v>2165.220643924552</v>
+        <v>2047.866677197733</v>
       </c>
       <c r="E51" t="n">
         <v>960</v>
@@ -1476,13 +1476,13 @@
         <v>45062</v>
       </c>
       <c r="B52" t="n">
-        <v>709.6726834886585</v>
+        <v>673.5557137540693</v>
       </c>
       <c r="C52" t="n">
-        <v>-135.9018881398235</v>
+        <v>-68.59939222652763</v>
       </c>
       <c r="D52" t="n">
-        <v>1562.849876624673</v>
+        <v>1476.723171120769</v>
       </c>
       <c r="E52" t="n">
         <v>708</v>
@@ -1557,22 +1557,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>128091.3772148281</v>
+        <v>73250.47608830876</v>
       </c>
       <c r="C2" t="n">
-        <v>357.8985571566727</v>
+        <v>270.648251589233</v>
       </c>
       <c r="D2" t="n">
-        <v>279.0766541079794</v>
+        <v>216.4889064665014</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7978926089043348</v>
+        <v>0.5990867563607465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5193384438908848</v>
+        <v>0.5373965374307572</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5599920348100534</v>
+        <v>0.4628463518288942</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1583,25 +1583,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>161910.4841107086</v>
+        <v>173406.0270323661</v>
       </c>
       <c r="C3" t="n">
-        <v>402.3810185765583</v>
+        <v>416.4204930504334</v>
       </c>
       <c r="D3" t="n">
-        <v>328.5246802122006</v>
+        <v>342.1842396289331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5833622942090557</v>
+        <v>0.5100143040193142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3111914774642465</v>
+        <v>0.3879362272956904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4372662328629344</v>
+        <v>0.4356818330383699</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -1609,22 +1609,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>359158.0669715598</v>
+        <v>291224.9899917577</v>
       </c>
       <c r="C4" t="n">
-        <v>599.29797844775</v>
+        <v>539.6526568004253</v>
       </c>
       <c r="D4" t="n">
-        <v>484.8121672649228</v>
+        <v>447.6799065694075</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3885907298009695</v>
+        <v>0.3830804914528969</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3379955159447912</v>
+        <v>0.3560450388846856</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3375563953705359</v>
+        <v>0.3287115336651745</v>
       </c>
       <c r="H4" t="n">
         <v>0.8604651162790702</v>

--- a/modelos/OBALEI4421033/OBALEI4421033_Sell in_metricas.xlsx
+++ b/modelos/OBALEI4421033/OBALEI4421033_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
       <c r="B2" t="n">
-        <v>1082.301935318359</v>
+        <v>1000.06128598462</v>
       </c>
       <c r="C2" t="n">
-        <v>228.8230130598623</v>
+        <v>136.3845020951406</v>
       </c>
       <c r="D2" t="n">
-        <v>1974.041114077751</v>
+        <v>1879.371908971015</v>
       </c>
       <c r="E2" t="n">
-        <v>636</v>
+        <v>1116</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44733</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B3" t="n">
-        <v>620.6008495904765</v>
+        <v>1219.090783682982</v>
       </c>
       <c r="C3" t="n">
-        <v>-272.7523638118952</v>
+        <v>308.3037261478703</v>
       </c>
       <c r="D3" t="n">
-        <v>1501.400434215283</v>
+        <v>2114.662977669801</v>
       </c>
       <c r="E3" t="n">
-        <v>384</v>
+        <v>636</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B4" t="n">
-        <v>1297.600514941045</v>
+        <v>686.698244795361</v>
       </c>
       <c r="C4" t="n">
-        <v>438.1226169756171</v>
+        <v>-156.8255301316391</v>
       </c>
       <c r="D4" t="n">
-        <v>2177.618788395353</v>
+        <v>1601.257446376552</v>
       </c>
       <c r="E4" t="n">
-        <v>1092</v>
+        <v>384</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44740</v>
@@ -533,199 +533,199 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B5" t="n">
-        <v>1478.348762607563</v>
+        <v>1397.732221325241</v>
       </c>
       <c r="C5" t="n">
-        <v>581.475983897033</v>
+        <v>505.2909487642178</v>
       </c>
       <c r="D5" t="n">
-        <v>2291.970449427326</v>
+        <v>2287.682428144852</v>
       </c>
       <c r="E5" t="n">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B6" t="n">
-        <v>1499.101827791215</v>
+        <v>1482.26848854169</v>
       </c>
       <c r="C6" t="n">
-        <v>619.2763120062089</v>
+        <v>548.2117765767705</v>
       </c>
       <c r="D6" t="n">
-        <v>2388.501417811564</v>
+        <v>2271.024870749157</v>
       </c>
       <c r="E6" t="n">
-        <v>924</v>
+        <v>1020</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="B7" t="n">
-        <v>1521.102327759266</v>
+        <v>1450.902749751016</v>
       </c>
       <c r="C7" t="n">
-        <v>693.2895617168682</v>
+        <v>626.7361328667572</v>
       </c>
       <c r="D7" t="n">
-        <v>2330.097883279709</v>
+        <v>2337.133925916031</v>
       </c>
       <c r="E7" t="n">
-        <v>1044</v>
+        <v>924</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
       <c r="B8" t="n">
-        <v>1672.758981560105</v>
+        <v>1495.926350254117</v>
       </c>
       <c r="C8" t="n">
-        <v>885.9999640088537</v>
+        <v>504.4699254545245</v>
       </c>
       <c r="D8" t="n">
-        <v>2509.634961462919</v>
+        <v>2337.960046014364</v>
       </c>
       <c r="E8" t="n">
-        <v>1380</v>
+        <v>1044</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B9" t="n">
-        <v>1791.009791065121</v>
+        <v>1606.794913856005</v>
       </c>
       <c r="C9" t="n">
-        <v>905.0893513017313</v>
+        <v>710.1884300359338</v>
       </c>
       <c r="D9" t="n">
-        <v>2604.580596484643</v>
+        <v>2423.336503973447</v>
       </c>
       <c r="E9" t="n">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B10" t="n">
-        <v>1575.980153843864</v>
+        <v>1785.738353423412</v>
       </c>
       <c r="C10" t="n">
-        <v>710.6366814923334</v>
+        <v>851.2225303213794</v>
       </c>
       <c r="D10" t="n">
-        <v>2403.925530262751</v>
+        <v>2610.338499767673</v>
       </c>
       <c r="E10" t="n">
-        <v>1020</v>
+        <v>1260</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
       <c r="B11" t="n">
-        <v>1208.507893563156</v>
+        <v>1519.237081489713</v>
       </c>
       <c r="C11" t="n">
-        <v>364.2829756734225</v>
+        <v>691.0515235771931</v>
       </c>
       <c r="D11" t="n">
-        <v>2029.487122047</v>
+        <v>2404.727806040526</v>
       </c>
       <c r="E11" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B12" t="n">
-        <v>1091.260343670368</v>
+        <v>1164.956909478486</v>
       </c>
       <c r="C12" t="n">
-        <v>223.8682648811633</v>
+        <v>368.3996304101404</v>
       </c>
       <c r="D12" t="n">
-        <v>1915.530107613419</v>
+        <v>1973.20089519854</v>
       </c>
       <c r="E12" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B13" t="n">
-        <v>593.067142930147</v>
+        <v>1056.099514278459</v>
       </c>
       <c r="C13" t="n">
-        <v>-318.1282067336534</v>
+        <v>240.9339645009939</v>
       </c>
       <c r="D13" t="n">
-        <v>1400.437677449956</v>
+        <v>1870.965629694763</v>
       </c>
       <c r="E13" t="n">
-        <v>684</v>
+        <v>600</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B14" t="n">
-        <v>1325.719040297162</v>
+        <v>520.643636284971</v>
       </c>
       <c r="C14" t="n">
-        <v>517.3505730616999</v>
+        <v>-318.9366109157384</v>
       </c>
       <c r="D14" t="n">
-        <v>2172.777968039143</v>
+        <v>1302.968971198951</v>
       </c>
       <c r="E14" t="n">
-        <v>1296</v>
+        <v>684</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44803</v>
@@ -733,199 +733,199 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B15" t="n">
-        <v>1801.129996014725</v>
+        <v>1308.356130009264</v>
       </c>
       <c r="C15" t="n">
-        <v>1022.308321284581</v>
+        <v>500.5368397534953</v>
       </c>
       <c r="D15" t="n">
-        <v>2647.948067226239</v>
+        <v>2185.828436573046</v>
       </c>
       <c r="E15" t="n">
-        <v>2100</v>
+        <v>1296</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B16" t="n">
-        <v>2317.831181596907</v>
+        <v>1877.267349936551</v>
       </c>
       <c r="C16" t="n">
-        <v>1465.702873421689</v>
+        <v>1020.200245168303</v>
       </c>
       <c r="D16" t="n">
-        <v>3153.610671584425</v>
+        <v>2713.197395188332</v>
       </c>
       <c r="E16" t="n">
-        <v>1092</v>
+        <v>2100</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B17" t="n">
-        <v>2115.43026066011</v>
+        <v>2338.660964195018</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.515995764082</v>
+        <v>1535.095445956277</v>
       </c>
       <c r="D17" t="n">
-        <v>2963.266379677618</v>
+        <v>3165.994722659684</v>
       </c>
       <c r="E17" t="n">
-        <v>1560</v>
+        <v>1092</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B18" t="n">
-        <v>1723.151933177032</v>
+        <v>2036.225320020701</v>
       </c>
       <c r="C18" t="n">
-        <v>932.2067825548024</v>
+        <v>1266.498797445709</v>
       </c>
       <c r="D18" t="n">
-        <v>2510.937570878484</v>
+        <v>2792.232578030569</v>
       </c>
       <c r="E18" t="n">
-        <v>888</v>
+        <v>1560</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B19" t="n">
-        <v>1427.937105580942</v>
+        <v>1689.559385461725</v>
       </c>
       <c r="C19" t="n">
-        <v>664.6580027015914</v>
+        <v>871.6541491029428</v>
       </c>
       <c r="D19" t="n">
-        <v>2272.97586108728</v>
+        <v>2480.037641080034</v>
       </c>
       <c r="E19" t="n">
-        <v>2004</v>
+        <v>888</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B20" t="n">
-        <v>1376.437789391228</v>
+        <v>1454.057561773433</v>
       </c>
       <c r="C20" t="n">
-        <v>575.1665645702834</v>
+        <v>641.2967314271323</v>
       </c>
       <c r="D20" t="n">
-        <v>2160.329303077155</v>
+        <v>2275.921845923931</v>
       </c>
       <c r="E20" t="n">
-        <v>1272</v>
+        <v>2004</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B21" t="n">
-        <v>1108.96971180684</v>
+        <v>1517.481791572311</v>
       </c>
       <c r="C21" t="n">
-        <v>286.652997045195</v>
+        <v>664.1278933979846</v>
       </c>
       <c r="D21" t="n">
-        <v>1904.369727721011</v>
+        <v>2360.247542868613</v>
       </c>
       <c r="E21" t="n">
-        <v>1752</v>
+        <v>1272</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B22" t="n">
-        <v>514.1335690716201</v>
+        <v>1234.670750243454</v>
       </c>
       <c r="C22" t="n">
-        <v>-318.2238664899548</v>
+        <v>432.3896588943855</v>
       </c>
       <c r="D22" t="n">
-        <v>1317.825075887355</v>
+        <v>2064.831715002756</v>
       </c>
       <c r="E22" t="n">
-        <v>840</v>
+        <v>1752</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B23" t="n">
-        <v>338.2629868093793</v>
+        <v>561.4731446173075</v>
       </c>
       <c r="C23" t="n">
-        <v>-467.5791844309907</v>
+        <v>-246.8995294303784</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.477812213215</v>
+        <v>1416.595383048448</v>
       </c>
       <c r="E23" t="n">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B24" t="n">
-        <v>837.2440406788367</v>
+        <v>449.3825638847944</v>
       </c>
       <c r="C24" t="n">
-        <v>73.76363789249372</v>
+        <v>-462.616329103667</v>
       </c>
       <c r="D24" t="n">
-        <v>1630.678643959645</v>
+        <v>1280.201398520968</v>
       </c>
       <c r="E24" t="n">
-        <v>1224</v>
+        <v>360</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44866</v>
@@ -933,561 +933,601 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B25" t="n">
-        <v>1101.055505692669</v>
+        <v>988.7330189963661</v>
       </c>
       <c r="C25" t="n">
-        <v>297.3079126569249</v>
+        <v>154.205004960647</v>
       </c>
       <c r="D25" t="n">
-        <v>1943.554446529235</v>
+        <v>1906.040057059811</v>
       </c>
       <c r="E25" t="n">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B26" t="n">
-        <v>1435.303230691813</v>
+        <v>1193.32316041256</v>
       </c>
       <c r="C26" t="n">
-        <v>700.2893267074642</v>
+        <v>390.2147770385915</v>
       </c>
       <c r="D26" t="n">
-        <v>2238.604787091759</v>
+        <v>2017.831704596358</v>
       </c>
       <c r="E26" t="n">
-        <v>1656</v>
+        <v>1236</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B27" t="n">
-        <v>1443.352965163058</v>
+        <v>1485.736382723641</v>
       </c>
       <c r="C27" t="n">
-        <v>623.6187673493417</v>
+        <v>712.2262451835212</v>
       </c>
       <c r="D27" t="n">
-        <v>2222.671378704178</v>
+        <v>2325.900809162404</v>
       </c>
       <c r="E27" t="n">
-        <v>1020</v>
+        <v>1656</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
       <c r="B28" t="n">
-        <v>934.082265705483</v>
+        <v>1533.06781517722</v>
       </c>
       <c r="C28" t="n">
-        <v>155.0371987422589</v>
+        <v>752.3317990564192</v>
       </c>
       <c r="D28" t="n">
-        <v>1730.550887913322</v>
+        <v>2292.087082853529</v>
       </c>
       <c r="E28" t="n">
-        <v>1668</v>
+        <v>1020</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B29" t="n">
-        <v>1252.723756635352</v>
+        <v>1213.172589513474</v>
       </c>
       <c r="C29" t="n">
-        <v>446.6312536478854</v>
+        <v>397.2455023768433</v>
       </c>
       <c r="D29" t="n">
-        <v>2068.121117725044</v>
+        <v>2051.398376356973</v>
       </c>
       <c r="E29" t="n">
-        <v>1200</v>
+        <v>2784</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B30" t="n">
-        <v>1839.225952258553</v>
+        <v>1146.485354599038</v>
       </c>
       <c r="C30" t="n">
-        <v>1040.651494850825</v>
+        <v>328.1034020102664</v>
       </c>
       <c r="D30" t="n">
-        <v>2647.7078592239</v>
+        <v>1975.571390377301</v>
       </c>
       <c r="E30" t="n">
-        <v>1092</v>
+        <v>1668</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B31" t="n">
-        <v>2264.445877455323</v>
+        <v>1371.402491664351</v>
       </c>
       <c r="C31" t="n">
-        <v>1504.016562573899</v>
+        <v>493.5483073502837</v>
       </c>
       <c r="D31" t="n">
-        <v>3047.199958398524</v>
+        <v>2139.112382009464</v>
       </c>
       <c r="E31" t="n">
-        <v>1056</v>
+        <v>1200</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
       <c r="B32" t="n">
-        <v>2171.181124698545</v>
+        <v>1841.847927270758</v>
       </c>
       <c r="C32" t="n">
-        <v>1360.163285580295</v>
+        <v>1015.431200411482</v>
       </c>
       <c r="D32" t="n">
-        <v>2933.524839909968</v>
+        <v>2694.252763891165</v>
       </c>
       <c r="E32" t="n">
-        <v>1344</v>
+        <v>1092</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B33" t="n">
-        <v>1756.800775168145</v>
+        <v>2207.148051158232</v>
       </c>
       <c r="C33" t="n">
-        <v>965.301188523466</v>
+        <v>1380.363632982309</v>
       </c>
       <c r="D33" t="n">
-        <v>2537.059003963243</v>
+        <v>3102.849555669886</v>
       </c>
       <c r="E33" t="n">
-        <v>1440</v>
+        <v>1056</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
       <c r="B34" t="n">
-        <v>1236.595394725658</v>
+        <v>2199.094460440847</v>
       </c>
       <c r="C34" t="n">
-        <v>424.9248792379485</v>
+        <v>1367.934851738999</v>
       </c>
       <c r="D34" t="n">
-        <v>2072.467233065499</v>
+        <v>3027.165976800365</v>
       </c>
       <c r="E34" t="n">
-        <v>1236</v>
+        <v>1344</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
       <c r="B35" t="n">
-        <v>872.0698866334794</v>
+        <v>1828.586356434736</v>
       </c>
       <c r="C35" t="n">
-        <v>36.32317583955822</v>
+        <v>1007.590168461632</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.871179164626</v>
+        <v>2645.493870459489</v>
       </c>
       <c r="E35" t="n">
-        <v>612</v>
+        <v>1440</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B36" t="n">
-        <v>205.3959373807438</v>
+        <v>1297.61563832773</v>
       </c>
       <c r="C36" t="n">
-        <v>-547.0230722548316</v>
+        <v>518.9370568252054</v>
       </c>
       <c r="D36" t="n">
-        <v>976.3449744195012</v>
+        <v>2102.769922739695</v>
       </c>
       <c r="E36" t="n">
-        <v>444</v>
+        <v>1236</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="B37" t="n">
-        <v>590.7574723989151</v>
+        <v>877.4890087060221</v>
       </c>
       <c r="C37" t="n">
-        <v>-154.2324890976969</v>
+        <v>63.3829169467656</v>
       </c>
       <c r="D37" t="n">
-        <v>1412.819860282053</v>
+        <v>1684.986982921571</v>
       </c>
       <c r="E37" t="n">
-        <v>1008</v>
+        <v>612</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44971</v>
+        <v>44960</v>
       </c>
       <c r="B38" t="n">
-        <v>631.4383438869463</v>
+        <v>129.4379719526637</v>
       </c>
       <c r="C38" t="n">
-        <v>-194.4082279324286</v>
+        <v>-758.151979902992</v>
       </c>
       <c r="D38" t="n">
-        <v>1394.777988085613</v>
+        <v>883.5395662895976</v>
       </c>
       <c r="E38" t="n">
-        <v>924</v>
+        <v>444</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44980</v>
+        <v>44964</v>
       </c>
       <c r="B39" t="n">
-        <v>976.6657008597937</v>
+        <v>568.8777898028843</v>
       </c>
       <c r="C39" t="n">
-        <v>189.398348947381</v>
+        <v>-211.4190403646147</v>
       </c>
       <c r="D39" t="n">
-        <v>1799.169098219429</v>
+        <v>1405.337363656278</v>
       </c>
       <c r="E39" t="n">
-        <v>1296</v>
+        <v>1008</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="B40" t="n">
-        <v>1201.897612924668</v>
+        <v>637.1183581999754</v>
       </c>
       <c r="C40" t="n">
-        <v>434.1120650381937</v>
+        <v>-173.1925057083544</v>
       </c>
       <c r="D40" t="n">
-        <v>1915.014904645441</v>
+        <v>1424.810912957552</v>
       </c>
       <c r="E40" t="n">
-        <v>672</v>
+        <v>924</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44988</v>
+        <v>44980</v>
       </c>
       <c r="B41" t="n">
-        <v>794.569749862301</v>
+        <v>1057.940994883899</v>
       </c>
       <c r="C41" t="n">
-        <v>22.55159373943379</v>
+        <v>214.6857289378553</v>
       </c>
       <c r="D41" t="n">
-        <v>1563.139392663899</v>
+        <v>1867.245369186272</v>
       </c>
       <c r="E41" t="n">
-        <v>300</v>
+        <v>1296</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B42" t="n">
-        <v>1488.072790087686</v>
+        <v>1452.511465736892</v>
       </c>
       <c r="C42" t="n">
-        <v>712.6825089688443</v>
+        <v>625.7597327296476</v>
       </c>
       <c r="D42" t="n">
-        <v>2253.752844110094</v>
+        <v>2327.542112424452</v>
       </c>
       <c r="E42" t="n">
-        <v>1380</v>
+        <v>672</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="B43" t="n">
-        <v>1478.590330067434</v>
+        <v>1008.368907238278</v>
       </c>
       <c r="C43" t="n">
-        <v>657.3575294809048</v>
+        <v>146.8203487033405</v>
       </c>
       <c r="D43" t="n">
-        <v>2235.974853757225</v>
+        <v>1839.597047570879</v>
       </c>
       <c r="E43" t="n">
-        <v>1392</v>
+        <v>300</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B44" t="n">
-        <v>1123.695423206873</v>
+        <v>1756.255742416166</v>
       </c>
       <c r="C44" t="n">
-        <v>340.2757021055706</v>
+        <v>984.9628365712449</v>
       </c>
       <c r="D44" t="n">
-        <v>1939.748192762969</v>
+        <v>2585.319055269886</v>
       </c>
       <c r="E44" t="n">
-        <v>2028</v>
+        <v>1380</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B45" t="n">
-        <v>887.0904991164673</v>
+        <v>1626.670973257505</v>
       </c>
       <c r="C45" t="n">
-        <v>163.1488528259514</v>
+        <v>882.5117324969101</v>
       </c>
       <c r="D45" t="n">
-        <v>1747.067565394388</v>
+        <v>2388.30420325858</v>
       </c>
       <c r="E45" t="n">
-        <v>1056</v>
+        <v>1392</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B46" t="n">
-        <v>1030.463273951985</v>
+        <v>1140.848401989508</v>
       </c>
       <c r="C46" t="n">
-        <v>276.6922825756904</v>
+        <v>426.4492050792762</v>
       </c>
       <c r="D46" t="n">
-        <v>1858.9535969551</v>
+        <v>1905.419792935495</v>
       </c>
       <c r="E46" t="n">
-        <v>1428</v>
+        <v>2028</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B47" t="n">
-        <v>1894.113201204928</v>
+        <v>904.2787575990659</v>
       </c>
       <c r="C47" t="n">
-        <v>1068.776387960565</v>
+        <v>123.0714607633031</v>
       </c>
       <c r="D47" t="n">
-        <v>2689.316449457275</v>
+        <v>1665.855616915118</v>
       </c>
       <c r="E47" t="n">
-        <v>1308</v>
+        <v>1056</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="B48" t="n">
-        <v>2707.597699269729</v>
+        <v>1055.129412440543</v>
       </c>
       <c r="C48" t="n">
-        <v>1940.679144685311</v>
+        <v>254.0807165424422</v>
       </c>
       <c r="D48" t="n">
-        <v>3464.737717030538</v>
+        <v>1837.321000238783</v>
       </c>
       <c r="E48" t="n">
-        <v>3636</v>
+        <v>1428</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B49" t="n">
-        <v>2751.588047816781</v>
+        <v>1943.652228065272</v>
       </c>
       <c r="C49" t="n">
-        <v>2036.341221624649</v>
+        <v>1142.110479175125</v>
       </c>
       <c r="D49" t="n">
-        <v>3565.213257001205</v>
+        <v>2745.798898389452</v>
       </c>
       <c r="E49" t="n">
-        <v>2016</v>
+        <v>1308</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B50" t="n">
-        <v>2394.59748430756</v>
+        <v>2781.216882379447</v>
       </c>
       <c r="C50" t="n">
-        <v>1623.006115628216</v>
+        <v>1974.628853461992</v>
       </c>
       <c r="D50" t="n">
-        <v>3158.51237007975</v>
+        <v>3620.045123792268</v>
       </c>
       <c r="E50" t="n">
-        <v>1656</v>
+        <v>3636</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B51" t="n">
-        <v>1274.346375667935</v>
+        <v>2664.37936715782</v>
       </c>
       <c r="C51" t="n">
-        <v>494.5767709128846</v>
+        <v>1838.805654529927</v>
       </c>
       <c r="D51" t="n">
-        <v>2047.866677197733</v>
+        <v>3427.333114625736</v>
       </c>
       <c r="E51" t="n">
-        <v>960</v>
+        <v>2016</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2383.436685080743</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1553.174960318491</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3217.005248439741</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1656</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1265.67805554914</v>
+      </c>
+      <c r="C53" t="n">
+        <v>446.6666632700905</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2082.116107901793</v>
+      </c>
+      <c r="E53" t="n">
+        <v>960</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B52" t="n">
-        <v>673.5557137540693</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-68.59939222652763</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1476.723171120769</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="B54" t="n">
+        <v>706.5147184125324</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-185.0342600309087</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1512.793695464601</v>
+      </c>
+      <c r="E54" t="n">
         <v>708</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F54" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1557,22 +1597,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>73250.47608830876</v>
+        <v>145407.3099852427</v>
       </c>
       <c r="C2" t="n">
-        <v>270.648251589233</v>
+        <v>381.3231044471901</v>
       </c>
       <c r="D2" t="n">
-        <v>216.4889064665014</v>
+        <v>315.6736215361597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5990867563607465</v>
+        <v>0.8690178797844214</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5373965374307572</v>
+        <v>0.7084730361426493</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4628463518288942</v>
+        <v>0.6474871878756204</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1583,25 +1623,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>173406.0270323661</v>
+        <v>186838.9885762148</v>
       </c>
       <c r="C3" t="n">
-        <v>416.4204930504334</v>
+        <v>432.2487577497647</v>
       </c>
       <c r="D3" t="n">
-        <v>342.1842396289331</v>
+        <v>374.7854174297983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5100143040193142</v>
+        <v>0.6520499957353634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3879362272956904</v>
+        <v>0.3315795897413006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4356818330383699</v>
+        <v>0.5234003135903575</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1609,25 +1649,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>291224.9899917577</v>
+        <v>328618.459726705</v>
       </c>
       <c r="C4" t="n">
-        <v>539.6526568004253</v>
+        <v>573.2525270129256</v>
       </c>
       <c r="D4" t="n">
-        <v>447.6799065694075</v>
+        <v>468.0443573693032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3830804914528969</v>
+        <v>0.3907875498681882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3560450388846856</v>
+        <v>0.3104779673160439</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3287115336651745</v>
+        <v>0.3333232316167837</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8604651162790702</v>
+        <v>0.8666666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBALEI4421033/OBALEI4421033_Sell in_metricas.xlsx
+++ b/modelos/OBALEI4421033/OBALEI4421033_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1050.282623403871</v>
+      </c>
+      <c r="C2" t="n">
+        <v>225.4112641099519</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1842.74177616311</v>
+      </c>
+      <c r="E2" t="n">
+        <v>636</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44733</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1000.06128598462</v>
-      </c>
-      <c r="C2" t="n">
-        <v>136.3845020951406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1879.371908971015</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1116</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B3" t="n">
+        <v>558.263378286211</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-272.4975628472723</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1407.387794745496</v>
+      </c>
+      <c r="E3" t="n">
+        <v>384</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44740</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1219.090783682982</v>
-      </c>
-      <c r="C3" t="n">
-        <v>308.3037261478703</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2114.662977669801</v>
-      </c>
-      <c r="E3" t="n">
-        <v>636</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="B4" t="n">
-        <v>686.698244795361</v>
+        <v>1227.27604118266</v>
       </c>
       <c r="C4" t="n">
-        <v>-156.8255301316391</v>
+        <v>337.0398323220003</v>
       </c>
       <c r="D4" t="n">
-        <v>1601.257446376552</v>
+        <v>2049.003970918949</v>
       </c>
       <c r="E4" t="n">
-        <v>384</v>
+        <v>1092</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44740</v>
@@ -533,199 +533,199 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1407.704901816963</v>
+      </c>
+      <c r="C5" t="n">
+        <v>538.8793667622979</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2268.971267394638</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44747</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1397.732221325241</v>
-      </c>
-      <c r="C5" t="n">
-        <v>505.2909487642178</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2287.682428144852</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1092</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44740</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1457.021783107484</v>
+      </c>
+      <c r="C6" t="n">
+        <v>589.511518938496</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2297.409464001871</v>
+      </c>
+      <c r="E6" t="n">
+        <v>924</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44754</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1482.26848854169</v>
-      </c>
-      <c r="C6" t="n">
-        <v>548.2117765767705</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2271.024870749157</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1513.475036051145</v>
+      </c>
+      <c r="C7" t="n">
+        <v>699.9579745241342</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2394.093608065059</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44761</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1450.902749751016</v>
-      </c>
-      <c r="C7" t="n">
-        <v>626.7361328667572</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2337.133925916031</v>
-      </c>
-      <c r="E7" t="n">
-        <v>924</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1626.894811033619</v>
+      </c>
+      <c r="C8" t="n">
+        <v>822.4795450108983</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2470.882705258671</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44768</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1495.926350254117</v>
-      </c>
-      <c r="C8" t="n">
-        <v>504.4699254545245</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2337.960046014364</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1044</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1716.058430766169</v>
+      </c>
+      <c r="C9" t="n">
+        <v>899.2531896123481</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2509.259674395571</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44775</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1606.794913856005</v>
-      </c>
-      <c r="C9" t="n">
-        <v>710.1884300359338</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2423.336503973447</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1380</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1528.171368572649</v>
+      </c>
+      <c r="C10" t="n">
+        <v>832.5055921022453</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2342.560209936812</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44782</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1785.738353423412</v>
-      </c>
-      <c r="C10" t="n">
-        <v>851.2225303213794</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2610.338499767673</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1260</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1153.690139589933</v>
+      </c>
+      <c r="C11" t="n">
+        <v>359.1891023687573</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1948.736652533628</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44789</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1519.237081489713</v>
-      </c>
-      <c r="C11" t="n">
-        <v>691.0515235771931</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2404.727806040526</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1002.738374325447</v>
+      </c>
+      <c r="C12" t="n">
+        <v>205.7986028411097</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1855.738124649396</v>
+      </c>
+      <c r="E12" t="n">
+        <v>600</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44796</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1164.956909478486</v>
-      </c>
-      <c r="C12" t="n">
-        <v>368.3996304101404</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1973.20089519854</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1080</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B13" t="n">
+        <v>545.4461265982163</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-290.3443288880218</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1347.391626818346</v>
+      </c>
+      <c r="E13" t="n">
+        <v>684</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1056.099514278459</v>
-      </c>
-      <c r="C13" t="n">
-        <v>240.9339645009939</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1870.965629694763</v>
-      </c>
-      <c r="E13" t="n">
-        <v>600</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B14" t="n">
-        <v>520.643636284971</v>
+        <v>1271.431442346568</v>
       </c>
       <c r="C14" t="n">
-        <v>-318.9366109157384</v>
+        <v>419.7202457888581</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.968971198951</v>
+        <v>2040.059257254024</v>
       </c>
       <c r="E14" t="n">
-        <v>684</v>
+        <v>1296</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44803</v>
@@ -733,199 +733,199 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1794.415330270564</v>
+      </c>
+      <c r="C15" t="n">
+        <v>996.0120746340505</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2635.981307330301</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1308.356130009264</v>
-      </c>
-      <c r="C15" t="n">
-        <v>500.5368397534953</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2185.828436573046</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1296</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2352.934128447086</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1573.780243607055</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3178.800166382875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1092</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44817</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1877.267349936551</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1020.200245168303</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2713.197395188332</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2100</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2057.306386367017</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1340.733473251847</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2844.972087333997</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2338.660964195018</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1535.095445956277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3165.994722659684</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1092</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1693.379755141394</v>
+      </c>
+      <c r="C18" t="n">
+        <v>900.6156071149294</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2450.240772821368</v>
+      </c>
+      <c r="E18" t="n">
+        <v>888</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2036.225320020701</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1266.498797445709</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2792.232578030569</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1560</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1370.619550840332</v>
+      </c>
+      <c r="C19" t="n">
+        <v>518.081145085541</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2186.3373138076</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44838</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1689.559385461725</v>
-      </c>
-      <c r="C19" t="n">
-        <v>871.6541491029428</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2480.037641080034</v>
-      </c>
-      <c r="E19" t="n">
-        <v>888</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1381.250933329886</v>
+      </c>
+      <c r="C20" t="n">
+        <v>642.6402473221721</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2170.512336917608</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44845</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1454.057561773433</v>
-      </c>
-      <c r="C20" t="n">
-        <v>641.2967314271323</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2275.921845923931</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44838</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1184.88055538538</v>
+      </c>
+      <c r="C21" t="n">
+        <v>397.8846239374627</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1928.317019313466</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1517.481791572311</v>
-      </c>
-      <c r="C21" t="n">
-        <v>664.1278933979846</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2360.247542868613</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1272</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B22" t="n">
+        <v>628.9221822434007</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-153.0213143166753</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1463.544535951125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>840</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1234.670750243454</v>
-      </c>
-      <c r="C22" t="n">
-        <v>432.3896588943855</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2064.831715002756</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B23" t="n">
-        <v>561.4731446173075</v>
+        <v>505.842279310811</v>
       </c>
       <c r="C23" t="n">
-        <v>-246.8995294303784</v>
+        <v>-339.446211803853</v>
       </c>
       <c r="D23" t="n">
-        <v>1416.595383048448</v>
+        <v>1345.27775168369</v>
       </c>
       <c r="E23" t="n">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B24" t="n">
-        <v>449.3825638847944</v>
+        <v>973.6422539822311</v>
       </c>
       <c r="C24" t="n">
-        <v>-462.616329103667</v>
+        <v>154.1100407160609</v>
       </c>
       <c r="D24" t="n">
-        <v>1280.201398520968</v>
+        <v>1815.551061848752</v>
       </c>
       <c r="E24" t="n">
-        <v>360</v>
+        <v>1224</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44866</v>
@@ -933,279 +933,279 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1101.798524603907</v>
+      </c>
+      <c r="C25" t="n">
+        <v>332.3280594688313</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1826.995145630345</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1236</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B25" t="n">
-        <v>988.7330189963661</v>
-      </c>
-      <c r="C25" t="n">
-        <v>154.205004960647</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1906.040057059811</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1224</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1410.860585864882</v>
+      </c>
+      <c r="C26" t="n">
+        <v>613.555815145176</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2186.241580443697</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1656</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1193.32316041256</v>
-      </c>
-      <c r="C26" t="n">
-        <v>390.2147770385915</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2017.831704596358</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1236</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1393.684395231174</v>
+      </c>
+      <c r="C27" t="n">
+        <v>601.1965726974117</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2255.409010721723</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1485.736382723641</v>
-      </c>
-      <c r="C27" t="n">
-        <v>712.2262451835212</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2325.900809162404</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1656</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1055.724103162916</v>
+      </c>
+      <c r="C28" t="n">
+        <v>269.6080412372955</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1850.443979921092</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2784</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1533.06781517722</v>
-      </c>
-      <c r="C28" t="n">
-        <v>752.3317990564192</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2292.087082853529</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1103.904366028594</v>
+      </c>
+      <c r="C29" t="n">
+        <v>361.6231473995887</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1937.566721655907</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1213.172589513474</v>
-      </c>
-      <c r="C29" t="n">
-        <v>397.2455023768433</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2051.398376356973</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2784</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1360.150163638858</v>
+      </c>
+      <c r="C30" t="n">
+        <v>507.7094263390991</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2097.548698196015</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1146.485354599038</v>
-      </c>
-      <c r="C30" t="n">
-        <v>328.1034020102664</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1975.571390377301</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1668</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1830.980622121075</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1005.364786183426</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2628.481366236717</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1092</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1371.402491664351</v>
-      </c>
-      <c r="C31" t="n">
-        <v>493.5483073502837</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2139.112382009464</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2228.386103319245</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1423.62279904842</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2996.368285016181</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1841.847927270758</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1015.431200411482</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2694.252763891165</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1092</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2209.115092423449</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1425.000428820295</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2959.984337218809</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2207.148051158232</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1380.363632982309</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3102.849555669886</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1056</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1812.067697428778</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1050.178584939133</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2573.750533475787</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2199.094460440847</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1367.934851738999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3027.165976800365</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1344</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1285.455058424267</v>
+      </c>
+      <c r="C35" t="n">
+        <v>603.0892329124084</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2107.092373694834</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1236</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1828.586356434736</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1007.590168461632</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2645.493870459489</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1440</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B36" t="n">
+        <v>875.9687311792102</v>
+      </c>
+      <c r="C36" t="n">
+        <v>83.46142604569889</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1652.801315784853</v>
+      </c>
+      <c r="E36" t="n">
+        <v>612</v>
+      </c>
+      <c r="F36" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1297.61563832773</v>
-      </c>
-      <c r="C36" t="n">
-        <v>518.9370568252054</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2102.769922739695</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1236</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B37" t="n">
+        <v>204.3265238082769</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-611.4114452854308</v>
+      </c>
+      <c r="D37" t="n">
+        <v>968.154139891042</v>
+      </c>
+      <c r="E37" t="n">
+        <v>444</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B37" t="n">
-        <v>877.4890087060221</v>
-      </c>
-      <c r="C37" t="n">
-        <v>63.3829169467656</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1684.986982921571</v>
-      </c>
-      <c r="E37" t="n">
-        <v>612</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B38" t="n">
-        <v>129.4379719526637</v>
+        <v>610.3266817157909</v>
       </c>
       <c r="C38" t="n">
-        <v>-758.151979902992</v>
+        <v>-228.2248648335364</v>
       </c>
       <c r="D38" t="n">
-        <v>883.5395662895976</v>
+        <v>1391.853022346501</v>
       </c>
       <c r="E38" t="n">
-        <v>444</v>
+        <v>1008</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>44957</v>
@@ -1213,59 +1213,59 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B39" t="n">
+        <v>656.3414760569945</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-117.4434299213403</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1454.449829059387</v>
+      </c>
+      <c r="E39" t="n">
+        <v>924</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B39" t="n">
-        <v>568.8777898028843</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-211.4190403646147</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1405.337363656278</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B40" t="n">
-        <v>637.1183581999754</v>
+        <v>997.8933526290801</v>
       </c>
       <c r="C40" t="n">
-        <v>-173.1925057083544</v>
+        <v>194.4034467624252</v>
       </c>
       <c r="D40" t="n">
-        <v>1424.810912957552</v>
+        <v>1729.522209722778</v>
       </c>
       <c r="E40" t="n">
-        <v>924</v>
+        <v>1296</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>1057.940994883899</v>
+        <v>1241.440747918721</v>
       </c>
       <c r="C41" t="n">
-        <v>214.6857289378553</v>
+        <v>423.3747093973156</v>
       </c>
       <c r="D41" t="n">
-        <v>1867.245369186272</v>
+        <v>2026.335178150277</v>
       </c>
       <c r="E41" t="n">
-        <v>1296</v>
+        <v>672</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>44978</v>
@@ -1273,39 +1273,39 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B42" t="n">
+        <v>799.6802690980262</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.87722874490033</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1636.981793241556</v>
+      </c>
+      <c r="E42" t="n">
+        <v>300</v>
+      </c>
+      <c r="F42" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1452.511465736892</v>
-      </c>
-      <c r="C42" t="n">
-        <v>625.7597327296476</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2327.542112424452</v>
-      </c>
-      <c r="E42" t="n">
-        <v>672</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B43" t="n">
-        <v>1008.368907238278</v>
+        <v>1491.102862457094</v>
       </c>
       <c r="C43" t="n">
-        <v>146.8203487033405</v>
+        <v>725.7277708982489</v>
       </c>
       <c r="D43" t="n">
-        <v>1839.597047570879</v>
+        <v>2260.916850108052</v>
       </c>
       <c r="E43" t="n">
-        <v>300</v>
+        <v>1380</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>44985</v>
@@ -1313,221 +1313,201 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1475.133998894871</v>
+      </c>
+      <c r="C44" t="n">
+        <v>715.5765415912639</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2286.968491197988</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1392</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1756.255742416166</v>
-      </c>
-      <c r="C44" t="n">
-        <v>984.9628365712449</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2585.319055269886</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1380</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1142.634819663023</v>
+      </c>
+      <c r="C45" t="n">
+        <v>366.5565085139238</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1926.971179569711</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2028</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1626.670973257505</v>
-      </c>
-      <c r="C45" t="n">
-        <v>882.5117324969101</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2388.30420325858</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1392</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B46" t="n">
+        <v>916.3218401574973</v>
+      </c>
+      <c r="C46" t="n">
+        <v>150.585529958141</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1685.436694490417</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F46" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1140.848401989508</v>
-      </c>
-      <c r="C46" t="n">
-        <v>426.4492050792762</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1905.419792935495</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2028</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1060.287627751334</v>
+      </c>
+      <c r="C47" t="n">
+        <v>292.5698759635182</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1839.665717780571</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1428</v>
+      </c>
+      <c r="F47" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B47" t="n">
-        <v>904.2787575990659</v>
-      </c>
-      <c r="C47" t="n">
-        <v>123.0714607633031</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1665.855616915118</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1056</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1926.619117193044</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1101.461203954026</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2728.928964742874</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1308</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1055.129412440543</v>
-      </c>
-      <c r="C48" t="n">
-        <v>254.0807165424422</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1837.321000238783</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1428</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2725.296960136019</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1857.031467798029</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3491.646204578098</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3636</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1943.652228065272</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1142.110479175125</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2745.798898389452</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1308</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2700.512000083116</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1995.701555461751</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3588.734001653131</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2781.216882379447</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1974.628853461992</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3620.045123792268</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3636</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B51" t="n">
-        <v>2664.37936715782</v>
+        <v>2420.509749435289</v>
       </c>
       <c r="C51" t="n">
-        <v>1838.805654529927</v>
+        <v>1613.511246913846</v>
       </c>
       <c r="D51" t="n">
-        <v>3427.333114625736</v>
+        <v>3204.796036343514</v>
       </c>
       <c r="E51" t="n">
-        <v>2016</v>
+        <v>1656</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1299.989289289048</v>
+      </c>
+      <c r="C52" t="n">
+        <v>440.574333687814</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2090.226154803532</v>
+      </c>
+      <c r="E52" t="n">
+        <v>960</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2383.436685080743</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1553.174960318491</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3217.005248439741</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1656</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B53" t="n">
-        <v>1265.67805554914</v>
+        <v>676.8989810375529</v>
       </c>
       <c r="C53" t="n">
-        <v>446.6666632700905</v>
+        <v>-153.1764243955422</v>
       </c>
       <c r="D53" t="n">
-        <v>2082.116107901793</v>
+        <v>1466.226729547801</v>
       </c>
       <c r="E53" t="n">
-        <v>960</v>
+        <v>708</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B54" t="n">
-        <v>706.5147184125324</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-185.0342600309087</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1512.793695464601</v>
-      </c>
-      <c r="E54" t="n">
-        <v>708</v>
-      </c>
-      <c r="F54" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1597,22 +1577,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>145407.3099852427</v>
+        <v>75591.7235593267</v>
       </c>
       <c r="C2" t="n">
-        <v>381.3231044471901</v>
+        <v>274.939490723553</v>
       </c>
       <c r="D2" t="n">
-        <v>315.6736215361597</v>
+        <v>239.602655257711</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8690178797844214</v>
+        <v>0.6533796978870658</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7084730361426493</v>
+        <v>0.4538108809536746</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6474871878756204</v>
+        <v>0.5160577082269437</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1623,22 +1603,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>186838.9885762148</v>
+        <v>147977.1388169311</v>
       </c>
       <c r="C3" t="n">
-        <v>432.2487577497647</v>
+        <v>384.6779676780711</v>
       </c>
       <c r="D3" t="n">
-        <v>374.7854174297983</v>
+        <v>322.8795567225696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6520499957353634</v>
+        <v>0.5101923785238024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3315795897413006</v>
+        <v>0.3395396825809106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5234003135903575</v>
+        <v>0.4251653007030587</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1649,25 +1629,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>328618.459726705</v>
+        <v>335681.3040897541</v>
       </c>
       <c r="C4" t="n">
-        <v>573.2525270129256</v>
+        <v>579.380103291228</v>
       </c>
       <c r="D4" t="n">
-        <v>468.0443573693032</v>
+        <v>459.8955282519513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3907875498681882</v>
+        <v>0.3725592339525342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3104779673160439</v>
+        <v>0.3309425720271538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3333232316167837</v>
+        <v>0.3261677625681539</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8666666666666671</v>
+        <v>0.8409090909090906</v>
       </c>
     </row>
   </sheetData>
